--- a/Book2024.xlsx
+++ b/Book2024.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="296">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -2171,11 +2171,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="227891840"/>
-        <c:axId val="227901824"/>
+        <c:axId val="227695232"/>
+        <c:axId val="227705216"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="227891840"/>
+        <c:axId val="227695232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,14 +2185,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227901824"/>
+        <c:crossAx val="227705216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="227901824"/>
+        <c:axId val="227705216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,7 +2203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227891840"/>
+        <c:crossAx val="227695232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12680,7 +12680,7 @@
   <dimension ref="A2:Q105"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+      <selection activeCell="C69" sqref="C68:E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12720,7 +12720,7 @@
       </c>
       <c r="C3" s="73">
         <f>SUM(C5:C2000)</f>
-        <v>16870</v>
+        <v>16840</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
@@ -14251,12 +14251,8 @@
         <v>64</v>
       </c>
       <c r="B68" s="71"/>
-      <c r="C68" s="75">
-        <v>10</v>
-      </c>
-      <c r="E68" s="65" t="s">
-        <v>49</v>
-      </c>
+      <c r="C68" s="75"/>
+      <c r="E68" s="65"/>
       <c r="F68" s="65"/>
       <c r="G68" s="65"/>
     </row>
@@ -14265,13 +14261,9 @@
         <v>65</v>
       </c>
       <c r="B69" s="71"/>
-      <c r="C69" s="75">
-        <v>20</v>
-      </c>
+      <c r="C69" s="75"/>
       <c r="D69" s="65"/>
-      <c r="E69" s="65" t="s">
-        <v>49</v>
-      </c>
+      <c r="E69" s="65"/>
       <c r="F69" s="65"/>
       <c r="G69" s="65"/>
     </row>
@@ -14555,7 +14547,7 @@
       <c r="B5" s="66"/>
       <c r="C5" s="90">
         <f>incomes!C3</f>
-        <v>16870</v>
+        <v>16840</v>
       </c>
       <c r="D5" s="91">
         <f>outcomes!C3</f>
@@ -14563,7 +14555,7 @@
       </c>
       <c r="E5" s="92">
         <f>(C3+C5)-D5</f>
-        <v>3403</v>
+        <v>3373</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
